--- a/ASEK/5a.xlsx
+++ b/ASEK/5a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carllavo/Desktop/MEX/mexscal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carllavo/Desktop/MEX/mexscal/ASEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E50E6F15-CD82-8042-B735-3FBC9CFC1F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D16B7-A637-4247-8078-1CB160756686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1340" windowWidth="27640" windowHeight="16800" xr2:uid="{762D7611-68B6-1D42-A1C0-24819BD84DBA}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16800" xr2:uid="{762D7611-68B6-1D42-A1C0-24819BD84DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="5a" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -581,9 +581,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,7 +700,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
@@ -1331,421 +1328,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30973DD-D3CC-8F49-A71A-B717272D7654}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1"/>
-    <col min="2" max="2" width="67.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="1"/>
-    <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.5" style="1"/>
+    <col min="1" max="1" width="67.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5" style="1"/>
+    <col min="6" max="6" width="29.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="36" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:2" s="35" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="35"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="2:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="31">
+      <c r="B8" s="30">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="30">
+      <c r="B9" s="29">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31">
+      <c r="B10" s="30">
         <v>2028</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="31">
+      <c r="B12" s="30">
         <v>2028</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="30">
+      <c r="B13" s="29">
         <v>2045</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31">
+      <c r="B14" s="30">
         <v>2065</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="30">
+      <c r="B15" s="29">
         <v>2065</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
+      <c r="B16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="27">
+      <c r="B17" s="26">
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="19">
+      <c r="B18" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="25">
+      <c r="B19" s="24">
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="22">
+      <c r="B21" s="21">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="20">
+      <c r="B23" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="20">
+      <c r="B25" s="19">
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="20">
+      <c r="B28" s="19">
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="19">
+      <c r="B29" s="18">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="17">
+      <c r="B30" s="16">
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
+      <c r="B31" s="8"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="16">
+      <c r="B32" s="15">
         <v>5.1917253121452953</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="15" t="s">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="14">
+      <c r="B33" s="13">
         <v>7.6833144154370113E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="13">
+      <c r="B34" s="12">
         <v>4.7261545373996316</v>
       </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="12">
+      <c r="B35" s="11">
         <v>2.1654774512713092E-2</v>
       </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
+      <c r="B36" s="8"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7">
+      <c r="B37" s="6">
         <v>46414.789979757094</v>
       </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5" t="s">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="4">
+      <c r="B38" s="4">
         <v>2482.0743304682937</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ASEK/5a.xlsx
+++ b/ASEK/5a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carllavo/Desktop/MEX/mexscal/ASEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D16B7-A637-4247-8078-1CB160756686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD303AB-C54C-884D-A4ED-41A14ECFE922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16800" xr2:uid="{762D7611-68B6-1D42-A1C0-24819BD84DBA}"/>
+    <workbookView xWindow="1500" yWindow="1260" windowWidth="27640" windowHeight="16800" xr2:uid="{762D7611-68B6-1D42-A1C0-24819BD84DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="5a" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Värdet av ett kvalitetsjusterat levnadsår (Qaly), tkr 2019</t>
   </si>
@@ -45,69 +45,6 @@
   </si>
   <si>
     <t>Hälsa</t>
-  </si>
-  <si>
-    <r>
-      <t>Kronor per bruttotonkilometer 2045 och 2065</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kronor per tågkm 2045 och 2065</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kronor per bruttotonkilometer 2019</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kronor per tågkm 2019</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>Banavgifter</t>
   </si>
   <si>
     <t>Moms på biljetter</t>
@@ -338,12 +275,6 @@
   </si>
   <si>
     <t>Kalkylvärden</t>
-  </si>
-  <si>
-    <t>Tabell 5.1. Övergripande kalkylvärden</t>
-  </si>
-  <si>
-    <t>ÖVERGRIPANDE KALKYLVÄRDEN</t>
   </si>
 </sst>
 </file>
@@ -354,7 +285,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,14 +297,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -420,21 +343,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -565,10 +473,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -576,104 +484,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,7 +585,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6372225" cy="4742452"/>
@@ -1328,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30973DD-D3CC-8F49-A71A-B717272D7654}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1345,314 +1229,281 @@
     <col min="8" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="35" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>35</v>
-      </c>
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="25">
+        <v>2019</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>35</v>
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="25">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="31"/>
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="25">
+        <v>2028</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="30">
-        <v>2019</v>
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2045</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="29">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="30">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="30">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="29">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="30">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="25">
         <v>2065</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="29">
+    <row r="10" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="24">
         <v>2065</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="26">
+    <row r="11" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="21">
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="18">
+    <row r="13" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="24">
+    <row r="14" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="21">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="A22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="19">
-        <v>0.1</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0.21</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="19">
+      <c r="A24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11">
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>12</v>
-      </c>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.21</v>
-      </c>
+      <c r="A27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6">
+        <v>46414.789979757094</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2482.0743304682937</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="18">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="16">
-        <v>0.06</v>
-      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="15">
-        <v>5.1917253121452953</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="13">
-        <v>7.6833144154370113E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="12">
-        <v>4.7261545373996316</v>
-      </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="11">
-        <v>2.1654774512713092E-2</v>
-      </c>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="6">
-        <v>46414.789979757094</v>
-      </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2482.0743304682937</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
@@ -1711,36 +1562,6 @@
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
